--- a/public/templates/스코디_대량등록_양식.xlsx
+++ b/public/templates/스코디_대량등록_양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yonghyun/Projects/Atoz/payplo/front/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D3D7B1-72D6-C745-8914-816A9FAB02B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521E579-8768-3543-BD66-5CC8953D23B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36880" yWindow="5520" windowWidth="22780" windowHeight="8120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>뽀</t>
   </si>
   <si>
-    <t>인사</t>
-  </si>
-  <si>
     <t>boradori@scordi.io</t>
   </si>
   <si>
@@ -70,15 +67,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>디자인, 경영</t>
+    <t>010-0000-0000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>회계, 경영</t>
+    <t>디자인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>010-0000-0000</t>
+    <t>인사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +677,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -696,13 +697,13 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -710,10 +711,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -727,8 +728,8 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="2"/>
     </row>
